--- a/Test Data/T1756.xlsx
+++ b/Test Data/T1756.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F90DEA-B7FD-4464-85AB-EA2F2D4F30B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B250CD3-775D-4743-855F-E3D0308E7E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Repeaters" sheetId="7" r:id="rId1"/>
-    <sheet name="Repeaters_Updated" sheetId="11" r:id="rId2"/>
+    <sheet name="RepeatersOld" sheetId="7" r:id="rId1"/>
+    <sheet name="Repeaters" sheetId="11" r:id="rId2"/>
     <sheet name="Loops" sheetId="3" r:id="rId3"/>
     <sheet name="Miscellaneous" sheetId="6" r:id="rId4"/>
     <sheet name="Printers" sheetId="9" r:id="rId5"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F86F-E670-4311-855B-F41E50B27A51}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/T1756.xlsx
+++ b/Test Data/T1756.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B250CD3-775D-4743-855F-E3D0308E7E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97A38C-2D0F-4BE5-8991-D15A0769DAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="RepeatersOld" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>MZX Communicator</t>
+  </si>
+  <si>
+    <t>FAT-S</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F86F-E670-4311-855B-F41E50B27A51}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1244,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,11 +1334,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
